--- a/study01/report/motivation/scr-signedup-participants/perceived-choice/by-Type/NonParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-signedup-participants/perceived-choice/by-Type/NonParametricAnalysis.xlsx
@@ -13605,13 +13605,13 @@
         <v>285.5</v>
       </c>
       <c r="G6" t="n" s="149">
-        <v>-2.436714134747913</v>
+        <v>-2.4367141347479135</v>
       </c>
       <c r="H6" t="n" s="150">
         <v>0.007104639158496366</v>
       </c>
       <c r="I6" t="n" s="151">
-        <v>0.3145784421115628</v>
+        <v>0.31457844211156283</v>
       </c>
       <c r="J6" t="s" s="152">
         <v>39</v>
@@ -13637,13 +13637,13 @@
         <v>285.5</v>
       </c>
       <c r="G7" t="n" s="149">
-        <v>-2.436714134747913</v>
+        <v>-2.4367141347479135</v>
       </c>
       <c r="H7" t="n" s="150">
         <v>0.007104639158496366</v>
       </c>
       <c r="I7" t="n" s="151">
-        <v>0.3145784421115628</v>
+        <v>0.31457844211156283</v>
       </c>
       <c r="J7" t="s" s="152">
         <v>39</v>
@@ -13993,13 +13993,13 @@
         <v>285.5</v>
       </c>
       <c r="G7" t="n" s="257">
-        <v>-2.436714134747913</v>
+        <v>-2.4367141347479135</v>
       </c>
       <c r="H7" t="n" s="258">
         <v>0.007104639158496366</v>
       </c>
       <c r="I7" t="n" s="259">
-        <v>0.3145784421115628</v>
+        <v>0.31457844211156283</v>
       </c>
       <c r="J7" t="s" s="260">
         <v>39</v>
@@ -14025,13 +14025,13 @@
         <v>285.5</v>
       </c>
       <c r="G8" t="n" s="257">
-        <v>-2.436714134747913</v>
+        <v>-2.4367141347479135</v>
       </c>
       <c r="H8" t="n" s="258">
         <v>0.007104639158496366</v>
       </c>
       <c r="I8" t="n" s="259">
-        <v>0.3145784421115628</v>
+        <v>0.31457844211156283</v>
       </c>
       <c r="J8" t="s" s="260">
         <v>39</v>
@@ -14094,13 +14094,13 @@
         <v>285.5</v>
       </c>
       <c r="G11" t="n" s="285">
-        <v>-2.436714134747913</v>
+        <v>-2.4367141347479135</v>
       </c>
       <c r="H11" t="n" s="286">
         <v>0.9930459267853962</v>
       </c>
       <c r="I11" t="n" s="287">
-        <v>0.3145784421115628</v>
+        <v>0.31457844211156283</v>
       </c>
       <c r="J11" t="s" s="288">
         <v>39</v>
@@ -14126,13 +14126,13 @@
         <v>285.5</v>
       </c>
       <c r="G12" t="n" s="285">
-        <v>-2.436714134747913</v>
+        <v>-2.4367141347479135</v>
       </c>
       <c r="H12" t="n" s="286">
         <v>0.9930459267853962</v>
       </c>
       <c r="I12" t="n" s="287">
-        <v>0.3145784421115628</v>
+        <v>0.31457844211156283</v>
       </c>
       <c r="J12" t="s" s="288">
         <v>39</v>
@@ -14195,13 +14195,13 @@
         <v>285.5</v>
       </c>
       <c r="G15" t="n" s="313">
-        <v>-2.436714134747913</v>
+        <v>-2.4367141347479135</v>
       </c>
       <c r="H15" t="n" s="314">
         <v>0.014209278316992731</v>
       </c>
       <c r="I15" t="n" s="315">
-        <v>0.3145784421115628</v>
+        <v>0.31457844211156283</v>
       </c>
       <c r="J15" t="s" s="316">
         <v>39</v>
@@ -14227,13 +14227,13 @@
         <v>285.5</v>
       </c>
       <c r="G16" t="n" s="313">
-        <v>-2.436714134747913</v>
+        <v>-2.4367141347479135</v>
       </c>
       <c r="H16" t="n" s="314">
         <v>0.014209278316992731</v>
       </c>
       <c r="I16" t="n" s="315">
-        <v>0.3145784421115628</v>
+        <v>0.31457844211156283</v>
       </c>
       <c r="J16" t="s" s="316">
         <v>39</v>
@@ -19986,13 +19986,13 @@
         <v>105.0</v>
       </c>
       <c r="G7" t="n" s="424">
-        <v>-0.2917085818305917</v>
+        <v>-0.29170858183059173</v>
       </c>
       <c r="H7" t="n" s="425">
         <v>0.39087905651577376</v>
       </c>
       <c r="I7" t="n" s="426">
-        <v>0.0532584568288189</v>
+        <v>0.05325845682881891</v>
       </c>
       <c r="J7" t="s" s="427">
         <v>115</v>
@@ -20018,13 +20018,13 @@
         <v>105.0</v>
       </c>
       <c r="G8" t="n" s="424">
-        <v>-0.2917085818305917</v>
+        <v>-0.29170858183059173</v>
       </c>
       <c r="H8" t="n" s="425">
         <v>0.39087905651577376</v>
       </c>
       <c r="I8" t="n" s="426">
-        <v>0.0532584568288189</v>
+        <v>0.05325845682881891</v>
       </c>
       <c r="J8" t="s" s="427">
         <v>115</v>
@@ -20087,13 +20087,13 @@
         <v>105.0</v>
       </c>
       <c r="G11" t="n" s="452">
-        <v>-0.2917085818305917</v>
+        <v>-0.29170858183059173</v>
       </c>
       <c r="H11" t="n" s="453">
         <v>0.6170727089155801</v>
       </c>
       <c r="I11" t="n" s="454">
-        <v>0.0532584568288189</v>
+        <v>0.05325845682881891</v>
       </c>
       <c r="J11" t="s" s="455">
         <v>115</v>
@@ -20119,13 +20119,13 @@
         <v>105.0</v>
       </c>
       <c r="G12" t="n" s="452">
-        <v>-0.2917085818305917</v>
+        <v>-0.29170858183059173</v>
       </c>
       <c r="H12" t="n" s="453">
         <v>0.6170727089155801</v>
       </c>
       <c r="I12" t="n" s="454">
-        <v>0.0532584568288189</v>
+        <v>0.05325845682881891</v>
       </c>
       <c r="J12" t="s" s="455">
         <v>115</v>
@@ -20188,13 +20188,13 @@
         <v>105.0</v>
       </c>
       <c r="G15" t="n" s="480">
-        <v>-0.2917085818305917</v>
+        <v>-0.29170858183059173</v>
       </c>
       <c r="H15" t="n" s="481">
         <v>0.7817910446221678</v>
       </c>
       <c r="I15" t="n" s="482">
-        <v>0.0532584568288189</v>
+        <v>0.05325845682881891</v>
       </c>
       <c r="J15" t="s" s="483">
         <v>115</v>
@@ -20220,13 +20220,13 @@
         <v>105.0</v>
       </c>
       <c r="G16" t="n" s="480">
-        <v>-0.2917085818305917</v>
+        <v>-0.29170858183059173</v>
       </c>
       <c r="H16" t="n" s="481">
         <v>0.7817910446221678</v>
       </c>
       <c r="I16" t="n" s="482">
-        <v>0.0532584568288189</v>
+        <v>0.05325845682881891</v>
       </c>
       <c r="J16" t="s" s="483">
         <v>115</v>
@@ -36601,13 +36601,13 @@
         <v>105.0</v>
       </c>
       <c r="G7" t="n" s="1259">
-        <v>-0.3123387675565923</v>
+        <v>-0.31233876755659234</v>
       </c>
       <c r="H7" t="n" s="1260">
         <v>0.3830339925496488</v>
       </c>
       <c r="I7" t="n" s="1261">
-        <v>0.05702499619136944</v>
+        <v>0.057024996191369456</v>
       </c>
       <c r="J7" t="s" s="1262">
         <v>115</v>
@@ -36633,13 +36633,13 @@
         <v>105.0</v>
       </c>
       <c r="G8" t="n" s="1259">
-        <v>-0.3123387675565923</v>
+        <v>-0.31233876755659234</v>
       </c>
       <c r="H8" t="n" s="1260">
         <v>0.3830339925496488</v>
       </c>
       <c r="I8" t="n" s="1261">
-        <v>0.05702499619136944</v>
+        <v>0.057024996191369456</v>
       </c>
       <c r="J8" t="s" s="1262">
         <v>115</v>
@@ -36702,13 +36702,13 @@
         <v>105.0</v>
       </c>
       <c r="G11" t="n" s="1287">
-        <v>-0.3123387675565923</v>
+        <v>-0.31233876755659234</v>
       </c>
       <c r="H11" t="n" s="1288">
         <v>0.6248342869329009</v>
       </c>
       <c r="I11" t="n" s="1289">
-        <v>0.05702499619136944</v>
+        <v>0.057024996191369456</v>
       </c>
       <c r="J11" t="s" s="1290">
         <v>115</v>
@@ -36734,13 +36734,13 @@
         <v>105.0</v>
       </c>
       <c r="G12" t="n" s="1287">
-        <v>-0.3123387675565923</v>
+        <v>-0.31233876755659234</v>
       </c>
       <c r="H12" t="n" s="1288">
         <v>0.6248342869329009</v>
       </c>
       <c r="I12" t="n" s="1289">
-        <v>0.05702499619136944</v>
+        <v>0.057024996191369456</v>
       </c>
       <c r="J12" t="s" s="1290">
         <v>115</v>
@@ -36803,13 +36803,13 @@
         <v>105.0</v>
       </c>
       <c r="G15" t="n" s="1315">
-        <v>-0.3123387675565923</v>
+        <v>-0.31233876755659234</v>
       </c>
       <c r="H15" t="n" s="1316">
         <v>0.7660679850992976</v>
       </c>
       <c r="I15" t="n" s="1317">
-        <v>0.05702499619136944</v>
+        <v>0.057024996191369456</v>
       </c>
       <c r="J15" t="s" s="1318">
         <v>115</v>
@@ -36835,13 +36835,13 @@
         <v>105.0</v>
       </c>
       <c r="G16" t="n" s="1315">
-        <v>-0.3123387675565923</v>
+        <v>-0.31233876755659234</v>
       </c>
       <c r="H16" t="n" s="1316">
         <v>0.7660679850992976</v>
       </c>
       <c r="I16" t="n" s="1317">
-        <v>0.05702499619136944</v>
+        <v>0.057024996191369456</v>
       </c>
       <c r="J16" t="s" s="1318">
         <v>115</v>
